--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2963.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2963.xlsx
@@ -354,7 +354,7 @@
         <v>2.675237035296127</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.167724002686976</v>
